--- a/public/sample_uploads/investor_kycs_update.xlsx
+++ b/public/sample_uploads/investor_kycs_update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC07DC-DFE2-4AF0-AC9E-A3A11718D86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E91266-DF67-4629-ACA2-A8B7326B65B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Investor</t>
   </si>
@@ -645,9 +645,6 @@
     <t>AGUPC8572B</t>
   </si>
   <si>
-    <t>D109</t>
-  </si>
-  <si>
     <t>Individual</t>
   </si>
   <si>
@@ -663,9 +660,6 @@
     <t>HDFC0001</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -687,9 +681,6 @@
     <t>AGUPC8572C</t>
   </si>
   <si>
-    <t>D110</t>
-  </si>
-  <si>
     <t>Foreign</t>
   </si>
   <si>
@@ -711,9 +702,6 @@
     <t>AGUPC8572D</t>
   </si>
   <si>
-    <t>D111</t>
-  </si>
-  <si>
     <t>Non Individual</t>
   </si>
   <si>
@@ -738,9 +726,6 @@
     <t>AGUPC8572F</t>
   </si>
   <si>
-    <t>D112</t>
-  </si>
-  <si>
     <t>Axis</t>
   </si>
   <si>
@@ -757,6 +742,18 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>D109x</t>
+  </si>
+  <si>
+    <t>D110x</t>
+  </si>
+  <si>
+    <t>D111x</t>
+  </si>
+  <si>
+    <t>D112x</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1236,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1352,46 +1349,46 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1">
         <v>50100000000</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="R2" s="6">
         <v>1000000</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -1399,193 +1396,193 @@
         <v>5</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4">
         <v>15772</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1">
         <v>50100000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="R3" s="1">
         <v>2000000</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V3" s="1">
         <v>6</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4">
         <v>33529</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K4" s="1">
         <v>50100000002</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R4" s="1">
         <v>3000000</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V4" s="1">
         <v>7</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4">
         <v>36676</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1">
         <v>50100000003</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R5" s="1">
         <v>4000000</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V5" s="1">
         <v>8</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
